--- a/src/main/java/com/samsung/qa/testdata/ExcelTestData2.xlsx
+++ b/src/main/java/com/samsung/qa/testdata/ExcelTestData2.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhbat/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF07D99-F60B-DE40-8AAA-1B71A9F2BE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19520" xr2:uid="{63DC6D4F-48B4-6444-A354-23EF8ADFB209}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="CoordinateDetails" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>keyname</t>
   </si>
@@ -44,35 +22,27 @@
     <t>longitude</t>
   </si>
   <si>
+    <t>99 Ranch Market Fremont Boulevard</t>
+  </si>
+  <si>
     <t>Crandall Creek Park</t>
   </si>
-  <si>
-    <t>99 Ranch Market Fremont Boulevard</t>
-  </si>
-  <si>
-    <t>37.571346</t>
-  </si>
-  <si>
-    <t>-123.03917</t>
-  </si>
-  <si>
-    <t>37.54131</t>
-  </si>
-  <si>
-    <t>-123.01191</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -80,193 +50,94 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,32 +278,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E3815-76C7-4542-9E4F-3B52976234A0}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,29 +302,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>37.575346</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-122.0413917</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="2">
+        <v>37.5131</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-123.0191</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/com/samsung/qa/testdata/ExcelTestData2.xlsx
+++ b/src/main/java/com/samsung/qa/testdata/ExcelTestData2.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subhbat/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{906CEAA4-BF8C-4840-B285-79F688E2BDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20320" xr2:uid="{63DC6D4F-48B4-6444-A354-23EF8ADFB209}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="CoordinateDetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>keyname</t>
   </si>
@@ -22,27 +44,35 @@
     <t>longitude</t>
   </si>
   <si>
+    <t>Crandall Creek Park</t>
+  </si>
+  <si>
     <t>99 Ranch Market Fremont Boulevard</t>
   </si>
   <si>
-    <t>Crandall Creek Park</t>
+    <t>37.575346</t>
+  </si>
+  <si>
+    <t>-122.0413917</t>
+  </si>
+  <si>
+    <t>38.604131</t>
+  </si>
+  <si>
+    <t>-123.304591</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -50,94 +80,193 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -278,20 +407,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E3815-76C7-4542-9E4F-3B52976234A0}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -302,29 +443,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
-        <v>37.575346</v>
-      </c>
-      <c r="C2" s="2">
-        <v>-122.0413917</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
-        <v>37.5131</v>
-      </c>
-      <c r="C3" s="2">
-        <v>-123.0191</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>